--- a/workfile/锐安项目文档/bi问题清单.xlsx
+++ b/workfile/锐安项目文档/bi问题清单.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20190611" sheetId="1" r:id="rId1"/>
     <sheet name="20190612" sheetId="2" r:id="rId2"/>
+    <sheet name="20190615" sheetId="3" r:id="rId3"/>
+    <sheet name="20190616" sheetId="4" r:id="rId4"/>
+    <sheet name="20190617" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="143">
   <si>
     <t>问题编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>财务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,7 +294,338 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需求确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源及现金流展示什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>驾驶舱需要增加人力资源和现金流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将来自于家园系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗加云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱，经营指标分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份历史数据不规范，整理相关不规范数据信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需确认总规划人数能否在系统取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱页面布局适应问题需调整修改</t>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜振兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营指标分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗加云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱数据权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱页面数据权限需要怎样去进行权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营指标权限需要怎样去进行权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营指标分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不进行数据权限的控制，只进行报表权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总规划人数取值位置未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱人力部分三个取值总规划人数变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱-&gt;新系统-&gt;招聘管理-&gt;空岗列表中取空岗数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">驾驶舱人力资源级别分类（漏斗）。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总规划人数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在岗人数，可规划人数
+现金流量表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现金余额，贷款余额，经营性现金流量净额(先按标签展示)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据合计汇总时发现在实际表中已经存在汇总结果，故汇总时重复计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗加云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据只取汇总结果，不进行sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱页面ie浏览器不兼容，地图闪动，显示效果差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信息表中部分数据缺失职级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗加云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在岗人数要统计进行下源数据的确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收数据未按季度展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营指标分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩数据将季度的实际值和业绩值展示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款数据将季度的实际值和业绩值展示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗加云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同总额汇总数据有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需源表进行数据整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需进行源表再确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需进行源表数据及逻辑的确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损益表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sap数据源，sap明细表截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +633,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +655,24 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +700,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,6 +816,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -811,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J1"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1458,6 +1838,9 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>7</v>
+      </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
@@ -1482,20 +1865,40 @@
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="8"/>
+    <row r="26" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27">
+        <v>8</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F27" s="3"/>
@@ -1538,11 +1941,11 @@
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="6:11" x14ac:dyDescent="0.15">
@@ -1552,6 +1955,14 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1562,17 +1973,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="49.25" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
@@ -1614,16 +2025,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>62</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>14</v>
@@ -1635,24 +2046,24 @@
       <c r="I2" s="24"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G3" s="23">
         <v>43628</v>
@@ -1664,15 +2075,272 @@
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>69</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="26">
+        <v>43628</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="34">
+        <v>43629</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="35">
+        <v>43630</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="38">
+        <v>43630</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="38">
+        <v>43630</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43628</v>
+      </c>
+      <c r="I12" s="16">
+        <v>43629</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43629</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="38">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="38">
+        <v>43630</v>
       </c>
     </row>
   </sheetData>
@@ -1680,4 +2348,621 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="62.375" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="39">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="39">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="35">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="39">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="39">
+        <v>43631</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="40">
+        <v>43632</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="40">
+        <v>43632</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="39">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="39">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="39">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="40">
+        <v>43632</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="39">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="39">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="39">
+        <v>43632</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/workfile/锐安项目文档/bi问题清单.xlsx
+++ b/workfile/锐安项目文档/bi问题清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20190611" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="20190615" sheetId="3" r:id="rId3"/>
     <sheet name="20190616" sheetId="4" r:id="rId4"/>
     <sheet name="20190617" sheetId="5" r:id="rId5"/>
+    <sheet name="20190620" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="150">
   <si>
     <t>问题编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,6 +627,34 @@
   </si>
   <si>
     <t>高祥云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sap数据问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗加云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sap业务专家明日到位，将数据放入测试环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2865,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2965,4 +2994,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/workfile/锐安项目文档/bi问题清单.xlsx
+++ b/workfile/锐安项目文档/bi问题清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20190611" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="20190617" sheetId="5" r:id="rId5"/>
     <sheet name="20190620" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2383,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2588,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3000,7 +3000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
